--- a/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_AGR_KEA_Trans.xlsx
+++ b/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_AGR_KEA_Trans.xlsx
@@ -1,40 +1,332 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weerasa\TIMES-NZ-Model-Files\TIMES-NZ\SubRES_TMPL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07078184-DF4B-4BAC-933D-3EEFEC76ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Documentation" sheetId="20" r:id="rId1"/>
+    <sheet name="AVA" sheetId="18" r:id="rId2"/>
+    <sheet name="AF_Trans" sheetId="17" r:id="rId3"/>
+    <sheet name="FILL Table" sheetId="19" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Availability of Technologies by Region
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>Cset_Set</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Cset_CD</t>
+  </si>
+  <si>
+    <t>Pset_PD</t>
+  </si>
+  <si>
+    <t>* Parameter values for qualifying technologies in each region, not tied to BASE</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
+  </si>
+  <si>
+    <t>Operation_Sum_Avg_Count</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Tech_Comm_Info</t>
+  </si>
+  <si>
+    <t>~TFM_AVA</t>
+  </si>
+  <si>
+    <t>REG2</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>ELCRNWIN01</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>ELCRNSOL01</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>AINDC-SH-Boiler-NGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workbook: Mapping and transformation of new process in Agriculture, Forestry and Fishing Future Technologies across regions  for Kea Scenario </t>
+  </si>
+  <si>
+    <t>AVA: Process availability across regions</t>
+  </si>
+  <si>
+    <t>AF_Trans: Time-slice-specific availability factors for existing energy processes</t>
+  </si>
+  <si>
+    <t>FILL Table: Model data for transformation operations</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="53"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,92 +334,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="13">
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 8" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 9 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normale_B2020" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +449,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,9 +518,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,85 +694,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB2892-F0CC-4065-A68A-8171F2DE7F2C}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>~TFM_AVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AllRegions</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AINDC-SH-Boiler-NGA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v/>
-      </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+    <row r="3" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3:P15"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" customWidth="1"/>
+    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2010</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2010</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2010</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2010</v>
+      </c>
+      <c r="G11">
+        <v>0.35</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2010</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2010</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2010</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2010</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>